--- a/data/output/FV2410_FV2404/UTILMD/55202.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55202.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="264">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="264">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -900,6 +900,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U129" totalsRowShown="0">
+  <autoFilter ref="A1:U129"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,7 +1219,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7423,5 +7456,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55202.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55202.xlsx
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4021,7 +4021,7 @@
         <v>250</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4291,7 +4291,7 @@
         <v>251</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5191,7 +5191,7 @@
         <v>254</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5395,7 +5395,7 @@
         <v>255</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5665,7 +5665,7 @@
         <v>256</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5869,7 +5869,7 @@
         <v>258</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6073,7 +6073,7 @@
         <v>259</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6273,7 +6273,7 @@
         <v>256</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6581,7 +6581,7 @@
         <v>260</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6843,7 +6843,7 @@
         <v>262</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7043,7 +7043,7 @@
         <v>262</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7243,7 +7243,7 @@
         <v>262</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7547,7 +7547,7 @@
         <v>263</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7855,7 +7855,7 @@
         <v>262</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2"/>
